--- a/sources/laptops.xlsx
+++ b/sources/laptops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fowillwly/Dev/shopping_bot/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64858886-5498-F041-A05E-D21AC68B369C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F30B855-EF2A-3144-AE77-99BB216C73D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26380" windowHeight="15540" xr2:uid="{61AB98E8-4DBE-F945-961E-200BFA28F3C5}"/>
   </bookViews>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>screnn-r1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>screen-r2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +200,10 @@
   </si>
   <si>
     <t>512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen-r1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7FF8E4-0800-4641-925F-239C11CA1B8C}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -625,13 +625,13 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -672,28 +672,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>85</v>
@@ -746,28 +746,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>80</v>
@@ -820,28 +820,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4">
         <v>2020</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>80</v>
@@ -859,10 +859,10 @@
         <v>1.2</v>
       </c>
       <c r="O4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4">
         <v>8.5</v>
@@ -894,28 +894,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
       <c r="D5">
         <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>70</v>
@@ -968,28 +968,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
       <c r="D6">
         <v>2020</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>90</v>

--- a/sources/laptops.xlsx
+++ b/sources/laptops.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fowillwly/Dev/shopping_bot/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F30B855-EF2A-3144-AE77-99BB216C73D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB987C2-F47D-FD4E-90C5-DADF7F911192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26380" windowHeight="15540" xr2:uid="{61AB98E8-4DBE-F945-961E-200BFA28F3C5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,27 @@
   <si>
     <t>screen-r1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big-screen</t>
+  </si>
+  <si>
+    <t>small-screen</t>
+  </si>
+  <si>
+    <t>too-heavy</t>
+  </si>
+  <si>
+    <t>high-performance</t>
+  </si>
+  <si>
+    <t>low-performance</t>
+  </si>
+  <si>
+    <t>too-expensive</t>
+  </si>
+  <si>
+    <t>to-cheap</t>
   </si>
 </sst>
 </file>
@@ -571,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7FF8E4-0800-4641-925F-239C11CA1B8C}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -590,10 +611,14 @@
     <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +691,29 @@
       <c r="X1" t="s">
         <v>17</v>
       </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>1</v>
       </c>
@@ -740,8 +786,29 @@
       <c r="X2">
         <v>6</v>
       </c>
+      <c r="Y2">
+        <v>9</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <v>7.5</v>
+      </c>
+      <c r="AC2">
+        <v>6.5</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>2</v>
       </c>
@@ -814,8 +881,29 @@
       <c r="X3">
         <v>7</v>
       </c>
+      <c r="Y3">
+        <v>8</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>7</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>3</v>
       </c>
@@ -888,8 +976,29 @@
       <c r="X4">
         <v>6</v>
       </c>
+      <c r="Y4">
+        <v>6</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>6.5</v>
+      </c>
+      <c r="AC4">
+        <v>7.5</v>
+      </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>4</v>
       </c>
@@ -962,8 +1071,29 @@
       <c r="X5">
         <v>6</v>
       </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>7.5</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1035,6 +1165,27 @@
       </c>
       <c r="X6">
         <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/sources/laptops.xlsx
+++ b/sources/laptops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fowillwly/Dev/shopping_bot/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB987C2-F47D-FD4E-90C5-DADF7F911192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E600E881-5AC8-964E-8E5F-8261EBBC10D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26380" windowHeight="15540" xr2:uid="{61AB98E8-4DBE-F945-961E-200BFA28F3C5}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="26380" windowHeight="15540" xr2:uid="{61AB98E8-4DBE-F945-961E-200BFA28F3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,61 @@
   </si>
   <si>
     <t>to-cheap</t>
+  </si>
+  <si>
+    <t>戴尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影精灵5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RedmiBook 14 锐龙版</t>
+  </si>
+  <si>
+    <t>R5-3500U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBook Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPS13-9300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7-1065G7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-4800H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,15 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7FF8E4-0800-4641-925F-239C11CA1B8C}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" customWidth="1"/>
@@ -864,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T3">
         <v>8</v>
@@ -879,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y3">
         <v>8</v>
@@ -932,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>2600</v>
@@ -950,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>8.5</v>
@@ -959,7 +1014,7 @@
         <v>8.5</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T4">
         <v>8.5</v>
@@ -974,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>6</v>
@@ -1045,10 +1100,10 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>7</v>
@@ -1158,7 +1213,7 @@
         <v>8999</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1185,6 +1240,481 @@
         <v>7</v>
       </c>
       <c r="AE6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>1920</v>
+      </c>
+      <c r="L7">
+        <v>1080</v>
+      </c>
+      <c r="M7">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>2.8</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>8.5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>5499</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>1920</v>
+      </c>
+      <c r="L8">
+        <v>1080</v>
+      </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>4.5</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>6.5</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>7.5</v>
+      </c>
+      <c r="U8">
+        <v>3299</v>
+      </c>
+      <c r="V8">
+        <v>6.5</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>7.5</v>
+      </c>
+      <c r="AB8">
+        <v>6.5</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>9</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>1920</v>
+      </c>
+      <c r="L9">
+        <v>1080</v>
+      </c>
+      <c r="M9">
+        <v>72</v>
+      </c>
+      <c r="N9">
+        <v>1.7</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>4.5</v>
+      </c>
+      <c r="Q9">
+        <v>6.5</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>6.5</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>5699</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>6.5</v>
+      </c>
+      <c r="X9">
+        <v>5.5</v>
+      </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>6.5</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>3840</v>
+      </c>
+      <c r="L10">
+        <v>2400</v>
+      </c>
+      <c r="M10">
+        <v>95</v>
+      </c>
+      <c r="N10">
+        <v>1.27</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>14999</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>85</v>
+      </c>
+      <c r="K11">
+        <v>1920</v>
+      </c>
+      <c r="L11">
+        <v>1080</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
+      <c r="N11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>4.5</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>6099</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11">
         <v>5</v>
       </c>
     </row>
